--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>0.01141125102288889</v>
+        <v>0.01310138913066667</v>
       </c>
       <c r="R2">
-        <v>0.102701259206</v>
+        <v>0.117912502176</v>
       </c>
       <c r="S2">
-        <v>0.0001414500491939724</v>
+        <v>0.000149626490159685</v>
       </c>
       <c r="T2">
-        <v>0.0001414500491939724</v>
+        <v>0.000149626490159685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>3.753284026518111</v>
+        <v>6.936037528176889</v>
       </c>
       <c r="R3">
-        <v>33.77955623866301</v>
+        <v>62.424337753592</v>
       </c>
       <c r="S3">
-        <v>0.04652445285140469</v>
+        <v>0.07921411543511307</v>
       </c>
       <c r="T3">
-        <v>0.04652445285140469</v>
+        <v>0.07921411543511307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>0.03792670679544445</v>
+        <v>0.4051745231484444</v>
       </c>
       <c r="R4">
-        <v>0.3413403611590001</v>
+        <v>3.646570708336</v>
       </c>
       <c r="S4">
-        <v>0.0004701267662257456</v>
+        <v>0.004627359831555577</v>
       </c>
       <c r="T4">
-        <v>0.0004701267662257456</v>
+        <v>0.004627359831555577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.367717666666667</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>4.103153</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.6892525793933763</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.6892525793933763</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>0.1668624671451111</v>
+        <v>0.005186672337777779</v>
       </c>
       <c r="R5">
-        <v>1.501762204306</v>
+        <v>0.04668005104</v>
       </c>
       <c r="S5">
-        <v>0.002068371306437905</v>
+        <v>5.923521313426762E-05</v>
       </c>
       <c r="T5">
-        <v>0.002068371306437905</v>
+        <v>5.923521313426761E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>54.88287229024588</v>
+        <v>0.1036675282626666</v>
       </c>
       <c r="R6">
-        <v>493.945850612213</v>
+        <v>0.9330077543639999</v>
       </c>
       <c r="S6">
-        <v>0.6803097197485405</v>
+        <v>0.001183951430094151</v>
       </c>
       <c r="T6">
-        <v>0.6803097197485405</v>
+        <v>0.001183951430094151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>0.5545880862565555</v>
+        <v>54.88287229024588</v>
       </c>
       <c r="R7">
-        <v>4.991292776309</v>
+        <v>493.945850612213</v>
       </c>
       <c r="S7">
-        <v>0.006874488338397902</v>
+        <v>0.6267985378321375</v>
       </c>
       <c r="T7">
-        <v>0.006874488338397901</v>
+        <v>0.6267985378321373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.523097</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H8">
-        <v>1.569291</v>
+        <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.2636113909397994</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.2636113909397994</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.06381818273133333</v>
+        <v>3.206029598150444</v>
       </c>
       <c r="R8">
-        <v>0.574363644582</v>
+        <v>28.85426638335399</v>
       </c>
       <c r="S8">
-        <v>0.0007910688380012265</v>
+        <v>0.03661496894222134</v>
       </c>
       <c r="T8">
-        <v>0.0007910688380012264</v>
+        <v>0.03661496894222134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.523097</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H9">
-        <v>1.569291</v>
+        <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.2636113909397994</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.2636113909397994</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>20.99049134634567</v>
+        <v>0.04104064811777778</v>
       </c>
       <c r="R9">
-        <v>188.914422117111</v>
+        <v>0.36936583306</v>
       </c>
       <c r="S9">
-        <v>0.2601911067937039</v>
+        <v>0.000468711223710466</v>
       </c>
       <c r="T9">
-        <v>0.2601911067937039</v>
+        <v>0.000468711223710466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5159453333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.547836</v>
+      </c>
+      <c r="I10">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="J10">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07579599999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.227388</v>
+      </c>
+      <c r="O10">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="P10">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="Q10">
+        <v>0.03910659248533333</v>
+      </c>
+      <c r="R10">
+        <v>0.351959332368</v>
+      </c>
+      <c r="S10">
+        <v>0.0004466230349565833</v>
+      </c>
+      <c r="T10">
+        <v>0.0004466230349565833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.523097</v>
-      </c>
-      <c r="H10">
-        <v>1.569291</v>
-      </c>
-      <c r="I10">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J10">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4054843333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.216453</v>
-      </c>
-      <c r="O10">
-        <v>0.009973830412717882</v>
-      </c>
-      <c r="P10">
-        <v>0.00997383041271788</v>
-      </c>
-      <c r="Q10">
-        <v>0.2121076383136667</v>
-      </c>
-      <c r="R10">
-        <v>1.908968744823</v>
-      </c>
-      <c r="S10">
-        <v>0.002629215308094234</v>
-      </c>
-      <c r="T10">
-        <v>0.002629215308094234</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5159453333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.547836</v>
+      </c>
+      <c r="I11">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="J11">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N11">
+        <v>120.382021</v>
+      </c>
+      <c r="O11">
+        <v>0.9424604146848589</v>
+      </c>
+      <c r="P11">
+        <v>0.9424604146848587</v>
+      </c>
+      <c r="Q11">
+        <v>20.70351398406178</v>
+      </c>
+      <c r="R11">
+        <v>186.331625856556</v>
+      </c>
+      <c r="S11">
+        <v>0.2364477614176084</v>
+      </c>
+      <c r="T11">
+        <v>0.2364477614176084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5159453333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.547836</v>
+      </c>
+      <c r="I12">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="J12">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.344072666666666</v>
+      </c>
+      <c r="N12">
+        <v>7.032217999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="P12">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="Q12">
+        <v>1.209413353360889</v>
+      </c>
+      <c r="R12">
+        <v>10.884720180248</v>
+      </c>
+      <c r="S12">
+        <v>0.01381229680386086</v>
+      </c>
+      <c r="T12">
+        <v>0.01381229680386086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5159453333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.547836</v>
+      </c>
+      <c r="I13">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="J13">
+        <v>0.2508834936018741</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09002</v>
+      </c>
+      <c r="O13">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P13">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q13">
+        <v>0.01548179963555556</v>
+      </c>
+      <c r="R13">
+        <v>0.13933619672</v>
+      </c>
+      <c r="S13">
+        <v>0.0001768123454482718</v>
+      </c>
+      <c r="T13">
+        <v>0.0001768123454482718</v>
       </c>
     </row>
   </sheetData>
